--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Mfge8-Pdgfrb.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Mfge8-Pdgfrb.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.52556533333333</v>
+        <v>28.52675633333333</v>
       </c>
       <c r="H2">
-        <v>46.576696</v>
+        <v>85.580269</v>
       </c>
       <c r="I2">
-        <v>0.2011808416743998</v>
+        <v>0.393786779209513</v>
       </c>
       <c r="J2">
-        <v>0.2011808416743998</v>
+        <v>0.393786779209513</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.389977333333333</v>
+        <v>22.32577533333334</v>
       </c>
       <c r="N2">
-        <v>13.169932</v>
+        <v>66.97732600000001</v>
       </c>
       <c r="O2">
-        <v>0.04229493651783071</v>
+        <v>0.1836188216937888</v>
       </c>
       <c r="P2">
-        <v>0.04229493651783071</v>
+        <v>0.1836188216937889</v>
       </c>
       <c r="Q2">
-        <v>68.15687990051912</v>
+        <v>636.8819528867439</v>
       </c>
       <c r="R2">
-        <v>613.4119191046719</v>
+        <v>5731.937575980694</v>
       </c>
       <c r="S2">
-        <v>0.008508930927222491</v>
+        <v>0.07230666439704297</v>
       </c>
       <c r="T2">
-        <v>0.008508930927222491</v>
+        <v>0.07230666439704299</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.52556533333333</v>
+        <v>28.52675633333333</v>
       </c>
       <c r="H3">
-        <v>46.576696</v>
+        <v>85.580269</v>
       </c>
       <c r="I3">
-        <v>0.2011808416743998</v>
+        <v>0.393786779209513</v>
       </c>
       <c r="J3">
-        <v>0.2011808416743998</v>
+        <v>0.393786779209513</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>157.825459</v>
       </c>
       <c r="O3">
-        <v>0.5068528652465702</v>
+        <v>0.4326796327291624</v>
       </c>
       <c r="P3">
-        <v>0.5068528652465704</v>
+        <v>0.4326796327291624</v>
       </c>
       <c r="Q3">
-        <v>816.7764916559404</v>
+        <v>1500.749470696497</v>
       </c>
       <c r="R3">
-        <v>7350.988424903463</v>
+        <v>13506.74523626847</v>
       </c>
       <c r="S3">
-        <v>0.1019690860353862</v>
+        <v>0.1703835190019719</v>
       </c>
       <c r="T3">
-        <v>0.1019690860353862</v>
+        <v>0.1703835190019719</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.52556533333333</v>
+        <v>28.52675633333333</v>
       </c>
       <c r="H4">
-        <v>46.576696</v>
+        <v>85.580269</v>
       </c>
       <c r="I4">
-        <v>0.2011808416743998</v>
+        <v>0.393786779209513</v>
       </c>
       <c r="J4">
-        <v>0.2011808416743998</v>
+        <v>0.393786779209513</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,28 +685,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.1014806666666667</v>
+        <v>0.127903</v>
       </c>
       <c r="N4">
-        <v>0.304442</v>
+        <v>0.383709</v>
       </c>
       <c r="O4">
-        <v>0.0009777085457511412</v>
+        <v>0.001051940987511236</v>
       </c>
       <c r="P4">
-        <v>0.0009777085457511412</v>
+        <v>0.001051940987511237</v>
       </c>
       <c r="Q4">
-        <v>1.575544720403556</v>
+        <v>3.648657715302333</v>
       </c>
       <c r="R4">
-        <v>14.179902483632</v>
+        <v>32.837919437721</v>
       </c>
       <c r="S4">
-        <v>0.000196696228146468</v>
+        <v>0.0004142404533905244</v>
       </c>
       <c r="T4">
-        <v>0.000196696228146468</v>
+        <v>0.0004142404533905244</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.52556533333333</v>
+        <v>28.52675633333333</v>
       </c>
       <c r="H5">
-        <v>46.576696</v>
+        <v>85.580269</v>
       </c>
       <c r="I5">
-        <v>0.2011808416743998</v>
+        <v>0.393786779209513</v>
       </c>
       <c r="J5">
-        <v>0.2011808416743998</v>
+        <v>0.393786779209513</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>46.36628199999999</v>
+        <v>46.272583</v>
       </c>
       <c r="N5">
-        <v>139.098846</v>
+        <v>138.817749</v>
       </c>
       <c r="O5">
-        <v>0.4467127743160336</v>
+        <v>0.3805698588439337</v>
       </c>
       <c r="P5">
-        <v>0.4467127743160337</v>
+        <v>0.3805698588439337</v>
       </c>
       <c r="Q5">
-        <v>719.8627404547572</v>
+        <v>1320.006700154942</v>
       </c>
       <c r="R5">
-        <v>6478.764664092815</v>
+        <v>11880.06030139448</v>
       </c>
       <c r="S5">
-        <v>0.08987005192360585</v>
+        <v>0.1498633789783717</v>
       </c>
       <c r="T5">
-        <v>0.08987005192360585</v>
+        <v>0.1498633789783717</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.52556533333333</v>
+        <v>28.52675633333333</v>
       </c>
       <c r="H6">
-        <v>46.576696</v>
+        <v>85.580269</v>
       </c>
       <c r="I6">
-        <v>0.2011808416743998</v>
+        <v>0.393786779209513</v>
       </c>
       <c r="J6">
-        <v>0.2011808416743998</v>
+        <v>0.393786779209513</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,28 +809,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.1953733333333334</v>
+        <v>0.1965033333333333</v>
       </c>
       <c r="N6">
-        <v>0.5861200000000001</v>
+        <v>0.58951</v>
       </c>
       <c r="O6">
-        <v>0.001882311024220242</v>
+        <v>0.001616145911479139</v>
       </c>
       <c r="P6">
-        <v>0.001882311024220242</v>
+        <v>0.001616145911479139</v>
       </c>
       <c r="Q6">
-        <v>3.033281451057778</v>
+        <v>5.605602708687778</v>
       </c>
       <c r="R6">
-        <v>27.29953305952</v>
+        <v>50.45042437819</v>
       </c>
       <c r="S6">
-        <v>0.0003786849161456299</v>
+        <v>0.000636416893213993</v>
       </c>
       <c r="T6">
-        <v>0.0003786849161456299</v>
+        <v>0.0006364168932139931</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>15.52556533333333</v>
+        <v>28.52675633333333</v>
       </c>
       <c r="H7">
-        <v>46.576696</v>
+        <v>85.580269</v>
       </c>
       <c r="I7">
-        <v>0.2011808416743998</v>
+        <v>0.393786779209513</v>
       </c>
       <c r="J7">
-        <v>0.2011808416743998</v>
+        <v>0.393786779209513</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,28 +871,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.132795</v>
+        <v>0.056368</v>
       </c>
       <c r="N7">
-        <v>0.398385</v>
+        <v>0.169104</v>
       </c>
       <c r="O7">
-        <v>0.001279404349593907</v>
+        <v>0.0004635998341245583</v>
       </c>
       <c r="P7">
-        <v>0.001279404349593907</v>
+        <v>0.0004635998341245584</v>
       </c>
       <c r="Q7">
-        <v>2.06171744844</v>
+        <v>1.607996200997333</v>
       </c>
       <c r="R7">
-        <v>18.55545703596</v>
+        <v>14.471965808976</v>
       </c>
       <c r="S7">
-        <v>0.0002573916438931904</v>
+        <v>0.0001825594855219743</v>
       </c>
       <c r="T7">
-        <v>0.0002573916438931903</v>
+        <v>0.0001825594855219743</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>38.891698</v>
       </c>
       <c r="I8">
-        <v>0.16798668024427</v>
+        <v>0.1789552273247594</v>
       </c>
       <c r="J8">
-        <v>0.16798668024427</v>
+        <v>0.1789552273247594</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.389977333333333</v>
+        <v>22.32577533333334</v>
       </c>
       <c r="N8">
-        <v>13.169932</v>
+        <v>66.97732600000001</v>
       </c>
       <c r="O8">
-        <v>0.04229493651783071</v>
+        <v>0.1836188216937888</v>
       </c>
       <c r="P8">
-        <v>0.04229493651783071</v>
+        <v>0.1836188216937889</v>
       </c>
       <c r="Q8">
-        <v>56.91122422494844</v>
+        <v>289.4291039599498</v>
       </c>
       <c r="R8">
-        <v>512.201018024536</v>
+        <v>2604.861935639548</v>
       </c>
       <c r="S8">
-        <v>0.007104985976772529</v>
+        <v>0.03285954797731645</v>
       </c>
       <c r="T8">
-        <v>0.007104985976772529</v>
+        <v>0.03285954797731645</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>38.891698</v>
       </c>
       <c r="I9">
-        <v>0.16798668024427</v>
+        <v>0.1789552273247594</v>
       </c>
       <c r="J9">
-        <v>0.16798668024427</v>
+        <v>0.1789552273247594</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>157.825459</v>
       </c>
       <c r="O9">
-        <v>0.5068528652465702</v>
+        <v>0.4326796327291624</v>
       </c>
       <c r="P9">
-        <v>0.5068528652465704</v>
+        <v>0.4326796327291624</v>
       </c>
       <c r="Q9">
         <v>682.0111209043757</v>
@@ -1013,10 +1013,10 @@
         <v>6138.100088139381</v>
       </c>
       <c r="S9">
-        <v>0.08514453020506769</v>
+        <v>0.07743028203384066</v>
       </c>
       <c r="T9">
-        <v>0.08514453020506771</v>
+        <v>0.07743028203384066</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>38.891698</v>
       </c>
       <c r="I10">
-        <v>0.16798668024427</v>
+        <v>0.1789552273247594</v>
       </c>
       <c r="J10">
-        <v>0.16798668024427</v>
+        <v>0.1789552273247594</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,28 +1057,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.1014806666666667</v>
+        <v>0.127903</v>
       </c>
       <c r="N10">
-        <v>0.304442</v>
+        <v>0.383709</v>
       </c>
       <c r="O10">
-        <v>0.0009777085457511412</v>
+        <v>0.001051940987511236</v>
       </c>
       <c r="P10">
-        <v>0.0009777085457511412</v>
+        <v>0.001051940987511237</v>
       </c>
       <c r="Q10">
-        <v>1.315585146946222</v>
+        <v>1.658121616431333</v>
       </c>
       <c r="R10">
-        <v>11.840266322516</v>
+        <v>14.923094547882</v>
       </c>
       <c r="S10">
-        <v>0.0001642420128471872</v>
+        <v>0.0001882503385523052</v>
       </c>
       <c r="T10">
-        <v>0.0001642420128471872</v>
+        <v>0.0001882503385523052</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>38.891698</v>
       </c>
       <c r="I11">
-        <v>0.16798668024427</v>
+        <v>0.1789552273247594</v>
       </c>
       <c r="J11">
-        <v>0.16798668024427</v>
+        <v>0.1789552273247594</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>46.36628199999999</v>
+        <v>46.272583</v>
       </c>
       <c r="N11">
-        <v>139.098846</v>
+        <v>138.817749</v>
       </c>
       <c r="O11">
-        <v>0.4467127743160336</v>
+        <v>0.3805698588439337</v>
       </c>
       <c r="P11">
-        <v>0.4467127743160337</v>
+        <v>0.3805698588439337</v>
       </c>
       <c r="Q11">
-        <v>601.0878123089452</v>
+        <v>599.8731079053113</v>
       </c>
       <c r="R11">
-        <v>5409.790310780507</v>
+        <v>5398.857971147801</v>
       </c>
       <c r="S11">
-        <v>0.07504179598005831</v>
+        <v>0.06810496560236774</v>
       </c>
       <c r="T11">
-        <v>0.07504179598005832</v>
+        <v>0.06810496560236776</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>38.891698</v>
       </c>
       <c r="I12">
-        <v>0.16798668024427</v>
+        <v>0.1789552273247594</v>
       </c>
       <c r="J12">
-        <v>0.16798668024427</v>
+        <v>0.1789552273247594</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1181,28 +1181,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.1953733333333334</v>
+        <v>0.1965033333333333</v>
       </c>
       <c r="N12">
-        <v>0.5861200000000001</v>
+        <v>0.58951</v>
       </c>
       <c r="O12">
-        <v>0.001882311024220242</v>
+        <v>0.001616145911479139</v>
       </c>
       <c r="P12">
-        <v>0.001882311024220242</v>
+        <v>0.001616145911479139</v>
       </c>
       <c r="Q12">
-        <v>2.532800225751112</v>
+        <v>2.547449431997777</v>
       </c>
       <c r="R12">
-        <v>22.79520203176</v>
+        <v>22.92704488798</v>
       </c>
       <c r="S12">
-        <v>0.0003162031801459503</v>
+        <v>0.0002892177589787298</v>
       </c>
       <c r="T12">
-        <v>0.0003162031801459503</v>
+        <v>0.0002892177589787298</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>38.891698</v>
       </c>
       <c r="I13">
-        <v>0.16798668024427</v>
+        <v>0.1789552273247594</v>
       </c>
       <c r="J13">
-        <v>0.16798668024427</v>
+        <v>0.1789552273247594</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1243,28 +1243,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.132795</v>
+        <v>0.056368</v>
       </c>
       <c r="N13">
-        <v>0.398385</v>
+        <v>0.169104</v>
       </c>
       <c r="O13">
-        <v>0.001279404349593907</v>
+        <v>0.0004635998341245583</v>
       </c>
       <c r="P13">
-        <v>0.001279404349593907</v>
+        <v>0.0004635998341245584</v>
       </c>
       <c r="Q13">
-        <v>1.72154101197</v>
+        <v>0.7307490776213332</v>
       </c>
       <c r="R13">
-        <v>15.49386910773</v>
+        <v>6.576741698592</v>
       </c>
       <c r="S13">
-        <v>0.00021492288937836</v>
+        <v>8.296361370348107E-05</v>
       </c>
       <c r="T13">
-        <v>0.00021492288937836</v>
+        <v>8.296361370348108E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7.281231333333333</v>
+        <v>1.361517666666667</v>
       </c>
       <c r="H14">
-        <v>21.843694</v>
+        <v>4.084553</v>
       </c>
       <c r="I14">
-        <v>0.09435046110179299</v>
+        <v>0.01879455380515985</v>
       </c>
       <c r="J14">
-        <v>0.09435046110179299</v>
+        <v>0.01879455380515985</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.389977333333333</v>
+        <v>22.32577533333334</v>
       </c>
       <c r="N14">
-        <v>13.169932</v>
+        <v>66.97732600000001</v>
       </c>
       <c r="O14">
-        <v>0.04229493651783071</v>
+        <v>0.1836188216937888</v>
       </c>
       <c r="P14">
-        <v>0.04229493651783071</v>
+        <v>0.1836188216937889</v>
       </c>
       <c r="Q14">
-        <v>31.96444051208978</v>
+        <v>30.39693753836422</v>
       </c>
       <c r="R14">
-        <v>287.6799646088079</v>
+        <v>273.572437845278</v>
       </c>
       <c r="S14">
-        <v>0.00399054676272839</v>
+        <v>0.003451033823963968</v>
       </c>
       <c r="T14">
-        <v>0.00399054676272839</v>
+        <v>0.003451033823963968</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7.281231333333333</v>
+        <v>1.361517666666667</v>
       </c>
       <c r="H15">
-        <v>21.843694</v>
+        <v>4.084553</v>
       </c>
       <c r="I15">
-        <v>0.09435046110179299</v>
+        <v>0.01879455380515985</v>
       </c>
       <c r="J15">
-        <v>0.09435046110179299</v>
+        <v>0.01879455380515985</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>157.825459</v>
       </c>
       <c r="O15">
-        <v>0.5068528652465702</v>
+        <v>0.4326796327291624</v>
       </c>
       <c r="P15">
-        <v>0.5068528652465704</v>
+        <v>0.4326796327291624</v>
       </c>
       <c r="Q15">
-        <v>383.0545590895051</v>
+        <v>71.62738355942521</v>
       </c>
       <c r="R15">
-        <v>3447.491031805546</v>
+        <v>644.6464520348269</v>
       </c>
       <c r="S15">
-        <v>0.04782180154677885</v>
+        <v>0.008132020637725047</v>
       </c>
       <c r="T15">
-        <v>0.04782180154677886</v>
+        <v>0.008132020637725048</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7.281231333333333</v>
+        <v>1.361517666666667</v>
       </c>
       <c r="H16">
-        <v>21.843694</v>
+        <v>4.084553</v>
       </c>
       <c r="I16">
-        <v>0.09435046110179299</v>
+        <v>0.01879455380515985</v>
       </c>
       <c r="J16">
-        <v>0.09435046110179299</v>
+        <v>0.01879455380515985</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1429,28 +1429,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.1014806666666667</v>
+        <v>0.127903</v>
       </c>
       <c r="N16">
-        <v>0.304442</v>
+        <v>0.383709</v>
       </c>
       <c r="O16">
-        <v>0.0009777085457511412</v>
+        <v>0.001051940987511236</v>
       </c>
       <c r="P16">
-        <v>0.0009777085457511412</v>
+        <v>0.001051940987511237</v>
       </c>
       <c r="Q16">
-        <v>0.7389042098608889</v>
+        <v>0.1741421941196666</v>
       </c>
       <c r="R16">
-        <v>6.650137888748</v>
+        <v>1.567279747077</v>
       </c>
       <c r="S16">
-        <v>9.224725211478364E-05</v>
+        <v>1.977076148963292E-05</v>
       </c>
       <c r="T16">
-        <v>9.224725211478364E-05</v>
+        <v>1.977076148963293E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>7.281231333333333</v>
+        <v>1.361517666666667</v>
       </c>
       <c r="H17">
-        <v>21.843694</v>
+        <v>4.084553</v>
       </c>
       <c r="I17">
-        <v>0.09435046110179299</v>
+        <v>0.01879455380515985</v>
       </c>
       <c r="J17">
-        <v>0.09435046110179299</v>
+        <v>0.01879455380515985</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>46.36628199999999</v>
+        <v>46.272583</v>
       </c>
       <c r="N17">
-        <v>139.098846</v>
+        <v>138.817749</v>
       </c>
       <c r="O17">
-        <v>0.4467127743160336</v>
+        <v>0.3805698588439337</v>
       </c>
       <c r="P17">
-        <v>0.4467127743160337</v>
+        <v>0.3805698588439337</v>
       </c>
       <c r="Q17">
-        <v>337.6036253085693</v>
+        <v>63.00093923679966</v>
       </c>
       <c r="R17">
-        <v>3038.432627777123</v>
+        <v>567.0084531311969</v>
       </c>
       <c r="S17">
-        <v>0.04214755623677896</v>
+        <v>0.007152640688664402</v>
       </c>
       <c r="T17">
-        <v>0.04214755623677897</v>
+        <v>0.007152640688664403</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>7.281231333333333</v>
+        <v>1.361517666666667</v>
       </c>
       <c r="H18">
-        <v>21.843694</v>
+        <v>4.084553</v>
       </c>
       <c r="I18">
-        <v>0.09435046110179299</v>
+        <v>0.01879455380515985</v>
       </c>
       <c r="J18">
-        <v>0.09435046110179299</v>
+        <v>0.01879455380515985</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1553,28 +1553,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>0.1953733333333334</v>
+        <v>0.1965033333333333</v>
       </c>
       <c r="N18">
-        <v>0.5861200000000001</v>
+        <v>0.58951</v>
       </c>
       <c r="O18">
-        <v>0.001882311024220242</v>
+        <v>0.001616145911479139</v>
       </c>
       <c r="P18">
-        <v>0.001882311024220242</v>
+        <v>0.001616145911479139</v>
       </c>
       <c r="Q18">
-        <v>1.422558436364445</v>
+        <v>0.2675427598922222</v>
       </c>
       <c r="R18">
-        <v>12.80302592728</v>
+        <v>2.40788483903</v>
       </c>
       <c r="S18">
-        <v>0.0001775969130721681</v>
+        <v>3.03747412902838E-05</v>
       </c>
       <c r="T18">
-        <v>0.0001775969130721681</v>
+        <v>3.03747412902838E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>7.281231333333333</v>
+        <v>1.361517666666667</v>
       </c>
       <c r="H19">
-        <v>21.843694</v>
+        <v>4.084553</v>
       </c>
       <c r="I19">
-        <v>0.09435046110179299</v>
+        <v>0.01879455380515985</v>
       </c>
       <c r="J19">
-        <v>0.09435046110179299</v>
+        <v>0.01879455380515985</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1615,28 +1615,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.132795</v>
+        <v>0.056368</v>
       </c>
       <c r="N19">
-        <v>0.398385</v>
+        <v>0.169104</v>
       </c>
       <c r="O19">
-        <v>0.001279404349593907</v>
+        <v>0.0004635998341245583</v>
       </c>
       <c r="P19">
-        <v>0.001279404349593907</v>
+        <v>0.0004635998341245584</v>
       </c>
       <c r="Q19">
-        <v>0.96691111491</v>
+        <v>0.07674602783466666</v>
       </c>
       <c r="R19">
-        <v>8.70220003419</v>
+        <v>0.690714250512</v>
       </c>
       <c r="S19">
-        <v>0.0001207123903198247</v>
+        <v>8.713152026517195E-06</v>
       </c>
       <c r="T19">
-        <v>0.0001207123903198247</v>
+        <v>8.713152026517195E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>30.676648</v>
+        <v>20.87837866666667</v>
       </c>
       <c r="H20">
-        <v>92.029944</v>
+        <v>62.635136</v>
       </c>
       <c r="I20">
-        <v>0.3975091232999413</v>
+        <v>0.2882076529905488</v>
       </c>
       <c r="J20">
-        <v>0.3975091232999413</v>
+        <v>0.2882076529905488</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.389977333333333</v>
+        <v>22.32577533333334</v>
       </c>
       <c r="N20">
-        <v>13.169932</v>
+        <v>66.97732600000001</v>
       </c>
       <c r="O20">
-        <v>0.04229493651783071</v>
+        <v>0.1836188216937888</v>
       </c>
       <c r="P20">
-        <v>0.04229493651783071</v>
+        <v>0.1836188216937889</v>
       </c>
       <c r="Q20">
-        <v>134.6697893826453</v>
+        <v>466.1259914362596</v>
       </c>
       <c r="R20">
-        <v>1212.028104443808</v>
+        <v>4195.133922926337</v>
       </c>
       <c r="S20">
-        <v>0.01681262313522956</v>
+        <v>0.05292034964525695</v>
       </c>
       <c r="T20">
-        <v>0.01681262313522956</v>
+        <v>0.05292034964525696</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>30.676648</v>
+        <v>20.87837866666667</v>
       </c>
       <c r="H21">
-        <v>92.029944</v>
+        <v>62.635136</v>
       </c>
       <c r="I21">
-        <v>0.3975091232999413</v>
+        <v>0.2882076529905488</v>
       </c>
       <c r="J21">
-        <v>0.3975091232999413</v>
+        <v>0.2882076529905488</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>157.825459</v>
       </c>
       <c r="O21">
-        <v>0.5068528652465702</v>
+        <v>0.4326796327291624</v>
       </c>
       <c r="P21">
-        <v>0.5068528652465704</v>
+        <v>0.4326796327291624</v>
       </c>
       <c r="Q21">
-        <v>1613.852017060477</v>
+        <v>1098.379898747492</v>
       </c>
       <c r="R21">
-        <v>14524.66815354429</v>
+        <v>9885.419088727424</v>
       </c>
       <c r="S21">
-        <v>0.2014786381062274</v>
+        <v>0.1247015814456845</v>
       </c>
       <c r="T21">
-        <v>0.2014786381062275</v>
+        <v>0.1247015814456846</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>30.676648</v>
+        <v>20.87837866666667</v>
       </c>
       <c r="H22">
-        <v>92.029944</v>
+        <v>62.635136</v>
       </c>
       <c r="I22">
-        <v>0.3975091232999413</v>
+        <v>0.2882076529905488</v>
       </c>
       <c r="J22">
-        <v>0.3975091232999413</v>
+        <v>0.2882076529905488</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1801,28 +1801,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.1014806666666667</v>
+        <v>0.127903</v>
       </c>
       <c r="N22">
-        <v>0.304442</v>
+        <v>0.383709</v>
       </c>
       <c r="O22">
-        <v>0.0009777085457511412</v>
+        <v>0.001051940987511236</v>
       </c>
       <c r="P22">
-        <v>0.0009777085457511412</v>
+        <v>0.001051940987511237</v>
       </c>
       <c r="Q22">
-        <v>3.113086690138667</v>
+        <v>2.670407266602667</v>
       </c>
       <c r="R22">
-        <v>28.017780211248</v>
+        <v>24.033665399424</v>
       </c>
       <c r="S22">
-        <v>0.0003886480668643966</v>
+        <v>0.0003031774430951736</v>
       </c>
       <c r="T22">
-        <v>0.0003886480668643966</v>
+        <v>0.0003031774430951737</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>30.676648</v>
+        <v>20.87837866666667</v>
       </c>
       <c r="H23">
-        <v>92.029944</v>
+        <v>62.635136</v>
       </c>
       <c r="I23">
-        <v>0.3975091232999413</v>
+        <v>0.2882076529905488</v>
       </c>
       <c r="J23">
-        <v>0.3975091232999413</v>
+        <v>0.2882076529905488</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>46.36628199999999</v>
+        <v>46.272583</v>
       </c>
       <c r="N23">
-        <v>139.098846</v>
+        <v>138.817749</v>
       </c>
       <c r="O23">
-        <v>0.4467127743160336</v>
+        <v>0.3805698588439337</v>
       </c>
       <c r="P23">
-        <v>0.4467127743160337</v>
+        <v>0.3805698588439337</v>
       </c>
       <c r="Q23">
-        <v>1422.362111982736</v>
+        <v>966.0965097587626</v>
       </c>
       <c r="R23">
-        <v>12801.25900784462</v>
+        <v>8694.868587828863</v>
       </c>
       <c r="S23">
-        <v>0.177572403285251</v>
+        <v>0.1096831458163546</v>
       </c>
       <c r="T23">
-        <v>0.1775724032852511</v>
+        <v>0.1096831458163546</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>30.676648</v>
+        <v>20.87837866666667</v>
       </c>
       <c r="H24">
-        <v>92.029944</v>
+        <v>62.635136</v>
       </c>
       <c r="I24">
-        <v>0.3975091232999413</v>
+        <v>0.2882076529905488</v>
       </c>
       <c r="J24">
-        <v>0.3975091232999413</v>
+        <v>0.2882076529905488</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -1925,28 +1925,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.1953733333333334</v>
+        <v>0.1965033333333333</v>
       </c>
       <c r="N24">
-        <v>0.5861200000000001</v>
+        <v>0.58951</v>
       </c>
       <c r="O24">
-        <v>0.001882311024220242</v>
+        <v>0.001616145911479139</v>
       </c>
       <c r="P24">
-        <v>0.001882311024220242</v>
+        <v>0.001616145911479139</v>
       </c>
       <c r="Q24">
-        <v>5.993398975253334</v>
+        <v>4.102671002595556</v>
       </c>
       <c r="R24">
-        <v>53.94059077728001</v>
+        <v>36.92403902336</v>
       </c>
       <c r="S24">
-        <v>0.000748235805015603</v>
+        <v>0.0004657856200376739</v>
       </c>
       <c r="T24">
-        <v>0.000748235805015603</v>
+        <v>0.0004657856200376741</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>30.676648</v>
+        <v>20.87837866666667</v>
       </c>
       <c r="H25">
-        <v>92.029944</v>
+        <v>62.635136</v>
       </c>
       <c r="I25">
-        <v>0.3975091232999413</v>
+        <v>0.2882076529905488</v>
       </c>
       <c r="J25">
-        <v>0.3975091232999413</v>
+        <v>0.2882076529905488</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1987,28 +1987,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M25">
-        <v>0.132795</v>
+        <v>0.056368</v>
       </c>
       <c r="N25">
-        <v>0.398385</v>
+        <v>0.169104</v>
       </c>
       <c r="O25">
-        <v>0.001279404349593907</v>
+        <v>0.0004635998341245583</v>
       </c>
       <c r="P25">
-        <v>0.001279404349593907</v>
+        <v>0.0004635998341245584</v>
       </c>
       <c r="Q25">
-        <v>4.07370547116</v>
+        <v>1.176872448682667</v>
       </c>
       <c r="R25">
-        <v>36.66334924044</v>
+        <v>10.591852038144</v>
       </c>
       <c r="S25">
-        <v>0.0005085749013532058</v>
+        <v>0.0001336130201198467</v>
       </c>
       <c r="T25">
-        <v>0.0005085749013532058</v>
+        <v>0.0001336130201198467</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.374402</v>
+        <v>1.70322</v>
       </c>
       <c r="H26">
-        <v>4.123206</v>
+        <v>5.10966</v>
       </c>
       <c r="I26">
-        <v>0.01780955122872896</v>
+        <v>0.0235114539574032</v>
       </c>
       <c r="J26">
-        <v>0.01780955122872896</v>
+        <v>0.0235114539574032</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>4.389977333333333</v>
+        <v>22.32577533333334</v>
       </c>
       <c r="N26">
-        <v>13.169932</v>
+        <v>66.97732600000001</v>
       </c>
       <c r="O26">
-        <v>0.04229493651783071</v>
+        <v>0.1836188216937888</v>
       </c>
       <c r="P26">
-        <v>0.04229493651783071</v>
+        <v>0.1836188216937889</v>
       </c>
       <c r="Q26">
-        <v>6.033593626888</v>
+        <v>38.02570706324001</v>
       </c>
       <c r="R26">
-        <v>54.30234264199199</v>
+        <v>342.23136356916</v>
       </c>
       <c r="S26">
-        <v>0.0007532538386301454</v>
+        <v>0.004317145471966145</v>
       </c>
       <c r="T26">
-        <v>0.0007532538386301453</v>
+        <v>0.004317145471966145</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>1.374402</v>
+        <v>1.70322</v>
       </c>
       <c r="H27">
-        <v>4.123206</v>
+        <v>5.10966</v>
       </c>
       <c r="I27">
-        <v>0.01780955122872896</v>
+        <v>0.0235114539574032</v>
       </c>
       <c r="J27">
-        <v>0.01780955122872896</v>
+        <v>0.0235114539574032</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>157.825459</v>
       </c>
       <c r="O27">
-        <v>0.5068528652465702</v>
+        <v>0.4326796327291624</v>
       </c>
       <c r="P27">
-        <v>0.5068528652465704</v>
+        <v>0.4326796327291624</v>
       </c>
       <c r="Q27">
-        <v>72.30520883350599</v>
+        <v>89.60382609266</v>
       </c>
       <c r="R27">
-        <v>650.746879501554</v>
+        <v>806.4344348339399</v>
       </c>
       <c r="S27">
-        <v>0.009026822069036851</v>
+        <v>0.01017292726321783</v>
       </c>
       <c r="T27">
-        <v>0.009026822069036851</v>
+        <v>0.01017292726321783</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>1.374402</v>
+        <v>1.70322</v>
       </c>
       <c r="H28">
-        <v>4.123206</v>
+        <v>5.10966</v>
       </c>
       <c r="I28">
-        <v>0.01780955122872896</v>
+        <v>0.0235114539574032</v>
       </c>
       <c r="J28">
-        <v>0.01780955122872896</v>
+        <v>0.0235114539574032</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -2173,28 +2173,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>0.1014806666666667</v>
+        <v>0.127903</v>
       </c>
       <c r="N28">
-        <v>0.304442</v>
+        <v>0.383709</v>
       </c>
       <c r="O28">
-        <v>0.0009777085457511412</v>
+        <v>0.001051940987511236</v>
       </c>
       <c r="P28">
-        <v>0.0009777085457511412</v>
+        <v>0.001051940987511237</v>
       </c>
       <c r="Q28">
-        <v>0.139475231228</v>
+        <v>0.21784694766</v>
       </c>
       <c r="R28">
-        <v>1.255277081052</v>
+        <v>1.96062252894</v>
       </c>
       <c r="S28">
-        <v>1.741255043232105E-05</v>
+        <v>2.473266209377569E-05</v>
       </c>
       <c r="T28">
-        <v>1.741255043232104E-05</v>
+        <v>2.473266209377569E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>1.374402</v>
+        <v>1.70322</v>
       </c>
       <c r="H29">
-        <v>4.123206</v>
+        <v>5.10966</v>
       </c>
       <c r="I29">
-        <v>0.01780955122872896</v>
+        <v>0.0235114539574032</v>
       </c>
       <c r="J29">
-        <v>0.01780955122872896</v>
+        <v>0.0235114539574032</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>46.36628199999999</v>
+        <v>46.272583</v>
       </c>
       <c r="N29">
-        <v>139.098846</v>
+        <v>138.817749</v>
       </c>
       <c r="O29">
-        <v>0.4467127743160336</v>
+        <v>0.3805698588439337</v>
       </c>
       <c r="P29">
-        <v>0.4467127743160337</v>
+        <v>0.3805698588439337</v>
       </c>
       <c r="Q29">
-        <v>63.72591071336398</v>
+        <v>78.81238881726</v>
       </c>
       <c r="R29">
-        <v>573.5331964202759</v>
+        <v>709.3114993553399</v>
       </c>
       <c r="S29">
-        <v>0.00795575403870904</v>
+        <v>0.008947750713784583</v>
       </c>
       <c r="T29">
-        <v>0.00795575403870904</v>
+        <v>0.008947750713784583</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>1.374402</v>
+        <v>1.70322</v>
       </c>
       <c r="H30">
-        <v>4.123206</v>
+        <v>5.10966</v>
       </c>
       <c r="I30">
-        <v>0.01780955122872896</v>
+        <v>0.0235114539574032</v>
       </c>
       <c r="J30">
-        <v>0.01780955122872896</v>
+        <v>0.0235114539574032</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -2297,28 +2297,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M30">
-        <v>0.1953733333333334</v>
+        <v>0.1965033333333333</v>
       </c>
       <c r="N30">
-        <v>0.5861200000000001</v>
+        <v>0.58951</v>
       </c>
       <c r="O30">
-        <v>0.001882311024220242</v>
+        <v>0.001616145911479139</v>
       </c>
       <c r="P30">
-        <v>0.001882311024220242</v>
+        <v>0.001616145911479139</v>
       </c>
       <c r="Q30">
-        <v>0.26852150008</v>
+        <v>0.3346884074</v>
       </c>
       <c r="R30">
-        <v>2.41669350072</v>
+        <v>3.0121956666</v>
       </c>
       <c r="S30">
-        <v>3.352311461425169E-05</v>
+        <v>3.799794018618721E-05</v>
       </c>
       <c r="T30">
-        <v>3.352311461425168E-05</v>
+        <v>3.799794018618721E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>1.374402</v>
+        <v>1.70322</v>
       </c>
       <c r="H31">
-        <v>4.123206</v>
+        <v>5.10966</v>
       </c>
       <c r="I31">
-        <v>0.01780955122872896</v>
+        <v>0.0235114539574032</v>
       </c>
       <c r="J31">
-        <v>0.01780955122872896</v>
+        <v>0.0235114539574032</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -2359,28 +2359,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M31">
-        <v>0.132795</v>
+        <v>0.056368</v>
       </c>
       <c r="N31">
-        <v>0.398385</v>
+        <v>0.169104</v>
       </c>
       <c r="O31">
-        <v>0.001279404349593907</v>
+        <v>0.0004635998341245583</v>
       </c>
       <c r="P31">
-        <v>0.001279404349593907</v>
+        <v>0.0004635998341245584</v>
       </c>
       <c r="Q31">
-        <v>0.18251371359</v>
+        <v>0.09600710496000001</v>
       </c>
       <c r="R31">
-        <v>1.64262342231</v>
+        <v>0.86406394464</v>
       </c>
       <c r="S31">
-        <v>2.278561730635135E-05</v>
+        <v>1.089990615467931E-05</v>
       </c>
       <c r="T31">
-        <v>2.278561730635135E-05</v>
+        <v>1.089990615467931E-05</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>9.350440000000001</v>
+        <v>7.008366333333332</v>
       </c>
       <c r="H32">
-        <v>28.05132</v>
+        <v>21.025099</v>
       </c>
       <c r="I32">
-        <v>0.121163342450867</v>
+        <v>0.0967443327126157</v>
       </c>
       <c r="J32">
-        <v>0.1211633424508669</v>
+        <v>0.0967443327126157</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>4.389977333333333</v>
+        <v>22.32577533333334</v>
       </c>
       <c r="N32">
-        <v>13.169932</v>
+        <v>66.97732600000001</v>
       </c>
       <c r="O32">
-        <v>0.04229493651783071</v>
+        <v>0.1836188216937888</v>
       </c>
       <c r="P32">
-        <v>0.04229493651783071</v>
+        <v>0.1836188216937889</v>
       </c>
       <c r="Q32">
-        <v>41.04821965669333</v>
+        <v>156.4672122116971</v>
       </c>
       <c r="R32">
-        <v>369.43397691024</v>
+        <v>1408.204909905274</v>
       </c>
       <c r="S32">
-        <v>0.005124595877247602</v>
+        <v>0.01776408037824237</v>
       </c>
       <c r="T32">
-        <v>0.005124595877247601</v>
+        <v>0.01776408037824237</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>9.350440000000001</v>
+        <v>7.008366333333332</v>
       </c>
       <c r="H33">
-        <v>28.05132</v>
+        <v>21.025099</v>
       </c>
       <c r="I33">
-        <v>0.121163342450867</v>
+        <v>0.0967443327126157</v>
       </c>
       <c r="J33">
-        <v>0.1211633424508669</v>
+        <v>0.0967443327126157</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>157.825459</v>
       </c>
       <c r="O33">
-        <v>0.5068528652465702</v>
+        <v>0.4326796327291624</v>
       </c>
       <c r="P33">
-        <v>0.5068528652465704</v>
+        <v>0.4326796327291624</v>
       </c>
       <c r="Q33">
-        <v>491.9124949506534</v>
+        <v>368.69954446616</v>
       </c>
       <c r="R33">
-        <v>4427.21245455588</v>
+        <v>3318.29590019544</v>
       </c>
       <c r="S33">
-        <v>0.06141198728407331</v>
+        <v>0.04185930234672245</v>
       </c>
       <c r="T33">
-        <v>0.06141198728407332</v>
+        <v>0.04185930234672246</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>9.350440000000001</v>
+        <v>7.008366333333332</v>
       </c>
       <c r="H34">
-        <v>28.05132</v>
+        <v>21.025099</v>
       </c>
       <c r="I34">
-        <v>0.121163342450867</v>
+        <v>0.0967443327126157</v>
       </c>
       <c r="J34">
-        <v>0.1211633424508669</v>
+        <v>0.0967443327126157</v>
       </c>
       <c r="K34">
         <v>2</v>
@@ -2545,28 +2545,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M34">
-        <v>0.1014806666666667</v>
+        <v>0.127903</v>
       </c>
       <c r="N34">
-        <v>0.304442</v>
+        <v>0.383709</v>
       </c>
       <c r="O34">
-        <v>0.0009777085457511412</v>
+        <v>0.001051940987511236</v>
       </c>
       <c r="P34">
-        <v>0.0009777085457511412</v>
+        <v>0.001051940987511237</v>
       </c>
       <c r="Q34">
-        <v>0.9488888848266667</v>
+        <v>0.8963910791323331</v>
       </c>
       <c r="R34">
-        <v>8.53999996344</v>
+        <v>8.067519712190999</v>
       </c>
       <c r="S34">
-        <v>0.0001184624353459846</v>
+        <v>0.0001017693288898246</v>
       </c>
       <c r="T34">
-        <v>0.0001184624353459846</v>
+        <v>0.0001017693288898246</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>9.350440000000001</v>
+        <v>7.008366333333332</v>
       </c>
       <c r="H35">
-        <v>28.05132</v>
+        <v>21.025099</v>
       </c>
       <c r="I35">
-        <v>0.121163342450867</v>
+        <v>0.0967443327126157</v>
       </c>
       <c r="J35">
-        <v>0.1211633424508669</v>
+        <v>0.0967443327126157</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>46.36628199999999</v>
+        <v>46.272583</v>
       </c>
       <c r="N35">
-        <v>139.098846</v>
+        <v>138.817749</v>
       </c>
       <c r="O35">
-        <v>0.4467127743160336</v>
+        <v>0.3805698588439337</v>
       </c>
       <c r="P35">
-        <v>0.4467127743160337</v>
+        <v>0.3805698588439337</v>
       </c>
       <c r="Q35">
-        <v>433.5451378640799</v>
+        <v>324.2952128535723</v>
       </c>
       <c r="R35">
-        <v>3901.90624077672</v>
+        <v>2918.656915682151</v>
       </c>
       <c r="S35">
-        <v>0.05412521285163043</v>
+        <v>0.03681797704439072</v>
       </c>
       <c r="T35">
-        <v>0.05412521285163043</v>
+        <v>0.03681797704439072</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>9.350440000000001</v>
+        <v>7.008366333333332</v>
       </c>
       <c r="H36">
-        <v>28.05132</v>
+        <v>21.025099</v>
       </c>
       <c r="I36">
-        <v>0.121163342450867</v>
+        <v>0.0967443327126157</v>
       </c>
       <c r="J36">
-        <v>0.1211633424508669</v>
+        <v>0.0967443327126157</v>
       </c>
       <c r="K36">
         <v>2</v>
@@ -2669,28 +2669,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M36">
-        <v>0.1953733333333334</v>
+        <v>0.1965033333333333</v>
       </c>
       <c r="N36">
-        <v>0.5861200000000001</v>
+        <v>0.58951</v>
       </c>
       <c r="O36">
-        <v>0.001882311024220242</v>
+        <v>0.001616145911479139</v>
       </c>
       <c r="P36">
-        <v>0.001882311024220242</v>
+        <v>0.001616145911479139</v>
       </c>
       <c r="Q36">
-        <v>1.826826630933334</v>
+        <v>1.377167345721111</v>
       </c>
       <c r="R36">
-        <v>16.4414396784</v>
+        <v>12.39450611149</v>
       </c>
       <c r="S36">
-        <v>0.0002280670952266393</v>
+        <v>0.0001563529577722714</v>
       </c>
       <c r="T36">
-        <v>0.0002280670952266393</v>
+        <v>0.0001563529577722714</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>9.350440000000001</v>
+        <v>7.008366333333332</v>
       </c>
       <c r="H37">
-        <v>28.05132</v>
+        <v>21.025099</v>
       </c>
       <c r="I37">
-        <v>0.121163342450867</v>
+        <v>0.0967443327126157</v>
       </c>
       <c r="J37">
-        <v>0.1211633424508669</v>
+        <v>0.0967443327126157</v>
       </c>
       <c r="K37">
         <v>2</v>
@@ -2731,28 +2731,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M37">
-        <v>0.132795</v>
+        <v>0.056368</v>
       </c>
       <c r="N37">
-        <v>0.398385</v>
+        <v>0.169104</v>
       </c>
       <c r="O37">
-        <v>0.001279404349593907</v>
+        <v>0.0004635998341245583</v>
       </c>
       <c r="P37">
-        <v>0.001279404349593907</v>
+        <v>0.0004635998341245584</v>
       </c>
       <c r="Q37">
-        <v>1.2416916798</v>
+        <v>0.3950475934773333</v>
       </c>
       <c r="R37">
-        <v>11.1752251182</v>
+        <v>3.555428341295999</v>
       </c>
       <c r="S37">
-        <v>0.0001550169073429753</v>
+        <v>4.485065659805972E-05</v>
       </c>
       <c r="T37">
-        <v>0.0001550169073429753</v>
+        <v>4.485065659805973E-05</v>
       </c>
     </row>
   </sheetData>
